--- a/results_cnn_subnetwork_evaluation/PCC_subnetwork_separate_node_index/cnn_validation_SubRCM_pcc_by_Graph_Laplacian_filtering_rcm_basic.xlsx
+++ b/results_cnn_subnetwork_evaluation/PCC_subnetwork_separate_node_index/cnn_validation_SubRCM_pcc_by_Graph_Laplacian_filtering_rcm_basic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_residual\results_cnn_subnetwork_evaluation\PCC_subnetwork_separate_node_index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011039DB-9A8A-4240-94C2-07A27F41D84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B02901D-8BCA-4ED9-BA64-41954422C38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,9 +523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B2:B31"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -1100,9 +1098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B2:B31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -1677,9 +1673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B2:B31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -2254,9 +2248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B2:B31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -2831,9 +2823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B2:B31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -3408,9 +3398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B2:B31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -3985,9 +3973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B2:B31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>

--- a/results_cnn_subnetwork_evaluation/PCC_subnetwork_separate_node_index/cnn_validation_SubRCM_pcc_by_Graph_Laplacian_filtering_rcm_basic.xlsx
+++ b/results_cnn_subnetwork_evaluation/PCC_subnetwork_separate_node_index/cnn_validation_SubRCM_pcc_by_Graph_Laplacian_filtering_rcm_basic.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_residual\results_cnn_subnetwork_evaluation\PCC_subnetwork_separate_node_index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B02901D-8BCA-4ED9-BA64-41954422C38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB32DBE-E43B-400C-9CA7-F4F9A07F8FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="GLF_sr_1" sheetId="1" r:id="rId1"/>
-    <sheet name="GLF_sr_0.75" sheetId="2" r:id="rId2"/>
-    <sheet name="GLF_sr_0.5" sheetId="3" r:id="rId3"/>
-    <sheet name="GLF_sr_0.3" sheetId="4" r:id="rId4"/>
-    <sheet name="GLF_sr_0.2" sheetId="5" r:id="rId5"/>
-    <sheet name="GLF_sr_0.1" sheetId="6" r:id="rId6"/>
-    <sheet name="GLF_sr_0.05" sheetId="7" r:id="rId7"/>
+    <sheet name="sr_1" sheetId="1" r:id="rId1"/>
+    <sheet name="sr_0.75" sheetId="2" r:id="rId2"/>
+    <sheet name="sr_0.5" sheetId="3" r:id="rId3"/>
+    <sheet name="sr_0.3" sheetId="4" r:id="rId4"/>
+    <sheet name="sr_0.2" sheetId="5" r:id="rId5"/>
+    <sheet name="sr_0.1" sheetId="6" r:id="rId6"/>
+    <sheet name="sr_0.05" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
